--- a/SDG12_3/Excel/SDGDataSubmission_2018-02-13.xlsx
+++ b/SDG12_3/Excel/SDGDataSubmission_2018-02-13.xlsx
@@ -46893,7 +46893,7 @@
         <v>360</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>88.4769855082054</v>
+        <v>87.4706725089701</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>361</v>
@@ -46945,7 +46945,7 @@
         <v>360</v>
       </c>
       <c r="E9" s="40" t="n">
-        <v>87.9250395927299</v>
+        <v>87.9604029435719</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>361</v>
@@ -46971,7 +46971,7 @@
         <v>360</v>
       </c>
       <c r="E10" s="40" t="n">
-        <v>101.201047257053</v>
+        <v>102.048456040959</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>361</v>
@@ -46993,7 +46993,7 @@
         <v>360</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>96.1836803780809</v>
+        <v>97.0059669462731</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>361</v>
@@ -47015,7 +47015,7 @@
         <v>360</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>101.716356576494</v>
+        <v>101.808954740473</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>361</v>
@@ -47037,7 +47037,7 @@
         <v>360</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>87.481973360835</v>
+        <v>87.519173072168</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>361</v>
@@ -47081,7 +47081,7 @@
         <v>360</v>
       </c>
       <c r="E15" s="40" t="n">
-        <v>107.329979332068</v>
+        <v>107.41202095249</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>361</v>
@@ -47103,7 +47103,7 @@
         <v>360</v>
       </c>
       <c r="E16" s="40" t="n">
-        <v>96.667663928502</v>
+        <v>96.6711988661629</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>361</v>
@@ -47125,7 +47125,7 @@
         <v>360</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>107.879105792278</v>
+        <v>95.9510668649295</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>361</v>
@@ -47147,7 +47147,7 @@
         <v>360</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>90.7892686738488</v>
+        <v>90.7730667383608</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>361</v>
@@ -47169,7 +47169,7 @@
         <v>360</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>83.6378204652796</v>
+        <v>83.625016091243</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>361</v>
@@ -47191,7 +47191,7 @@
         <v>360</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>110.070178770632</v>
+        <v>96.6149337046551</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>361</v>
@@ -47301,7 +47301,7 @@
         <v>360</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>94.2237908964051</v>
+        <v>94.0223224975779</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>361</v>
@@ -47323,7 +47323,7 @@
         <v>360</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>87.5250230639389</v>
+        <v>87.7390200910175</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>361</v>
@@ -47345,7 +47345,7 @@
         <v>360</v>
       </c>
       <c r="E27" s="40" t="n">
-        <v>90.229443149519</v>
+        <v>90.4958661113842</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>361</v>
@@ -47367,7 +47367,7 @@
         <v>360</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>102.618784406495</v>
+        <v>101.815992017749</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>361</v>
@@ -47389,7 +47389,7 @@
         <v>360</v>
       </c>
       <c r="E29" s="40" t="n">
-        <v>102.618784406495</v>
+        <v>101.815992017749</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>361</v>
@@ -47411,7 +47411,7 @@
         <v>360</v>
       </c>
       <c r="E30" s="40" t="n">
-        <v>87.229859419877</v>
+        <v>87.8150162333479</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>361</v>
@@ -47433,7 +47433,7 @@
         <v>360</v>
       </c>
       <c r="E31" s="40" t="n">
-        <v>87.229859419877</v>
+        <v>87.8150162333479</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>361</v>
@@ -47521,7 +47521,7 @@
         <v>360</v>
       </c>
       <c r="E35" s="40" t="n">
-        <v>86.1702763643893</v>
+        <v>86.2949993906662</v>
       </c>
       <c r="F35" s="41" t="s">
         <v>361</v>
@@ -47565,7 +47565,7 @@
         <v>360</v>
       </c>
       <c r="E37" s="40" t="n">
-        <v>103.443592965347</v>
+        <v>106.3196778035</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>361</v>
@@ -47653,7 +47653,7 @@
         <v>360</v>
       </c>
       <c r="E41" s="40" t="n">
-        <v>112.722730040087</v>
+        <v>112.785692627437</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>361</v>
@@ -47675,7 +47675,7 @@
         <v>360</v>
       </c>
       <c r="E42" s="40" t="n">
-        <v>63.2316585069769</v>
+        <v>63.2327664675932</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>361</v>
@@ -47763,7 +47763,7 @@
         <v>360</v>
       </c>
       <c r="E46" s="40" t="n">
-        <v>96.6531544922987</v>
+        <v>97.0541305158973</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>361</v>
@@ -49281,7 +49281,7 @@
         <v>360</v>
       </c>
       <c r="E115" s="40" t="n">
-        <v>93.9343501645972</v>
+        <v>94.3953599403985</v>
       </c>
       <c r="F115" s="22" t="s">
         <v>361</v>
@@ -49633,7 +49633,7 @@
         <v>360</v>
       </c>
       <c r="E131" s="40" t="n">
-        <v>158.124249793226</v>
+        <v>162.449755758096</v>
       </c>
       <c r="F131" s="22" t="s">
         <v>361</v>
@@ -49765,7 +49765,7 @@
         <v>360</v>
       </c>
       <c r="E137" s="40" t="n">
-        <v>89.7882521601498</v>
+        <v>92.9472424711498</v>
       </c>
       <c r="F137" s="22" t="s">
         <v>361</v>
@@ -50117,7 +50117,7 @@
         <v>360</v>
       </c>
       <c r="E153" s="40" t="n">
-        <v>107.490542867232</v>
+        <v>87.1345956529193</v>
       </c>
       <c r="F153" s="22" t="s">
         <v>361</v>
@@ -50205,7 +50205,7 @@
         <v>360</v>
       </c>
       <c r="E157" s="40" t="n">
-        <v>62.8080797502357</v>
+        <v>62.8167138463095</v>
       </c>
       <c r="F157" s="22" t="s">
         <v>361</v>
@@ -50249,7 +50249,7 @@
         <v>360</v>
       </c>
       <c r="E159" s="40" t="n">
-        <v>211.125522274742</v>
+        <v>211.245330239699</v>
       </c>
       <c r="F159" s="22" t="s">
         <v>361</v>
@@ -50447,7 +50447,7 @@
         <v>360</v>
       </c>
       <c r="E168" s="40" t="n">
-        <v>66.394109184298</v>
+        <v>87.1890110469055</v>
       </c>
       <c r="F168" s="22" t="s">
         <v>361</v>
@@ -50469,7 +50469,7 @@
         <v>360</v>
       </c>
       <c r="E169" s="40" t="n">
-        <v>275.690990810606</v>
+        <v>275.430747289288</v>
       </c>
       <c r="F169" s="22" t="s">
         <v>361</v>
@@ -50535,7 +50535,7 @@
         <v>360</v>
       </c>
       <c r="E172" s="40" t="n">
-        <v>113.544278288903</v>
+        <v>113.238239653439</v>
       </c>
       <c r="F172" s="22" t="s">
         <v>361</v>
@@ -50601,7 +50601,7 @@
         <v>360</v>
       </c>
       <c r="E175" s="40" t="n">
-        <v>65.9211210353565</v>
+        <v>53.1263085303782</v>
       </c>
       <c r="F175" s="22" t="s">
         <v>361</v>
@@ -50689,7 +50689,7 @@
         <v>360</v>
       </c>
       <c r="E179" s="40" t="n">
-        <v>117.497368316244</v>
+        <v>132.743307835576</v>
       </c>
       <c r="F179" s="22" t="s">
         <v>361</v>
@@ -50711,7 +50711,7 @@
         <v>360</v>
       </c>
       <c r="E180" s="40" t="n">
-        <v>78.6489555926799</v>
+        <v>113.372625294883</v>
       </c>
       <c r="F180" s="22" t="s">
         <v>361</v>
